--- a/data/trans_camb/P12A1_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,45</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,46</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,6</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-18,59</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,34</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,81</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,5</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-4,55</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 56,9</t>
+          <t>-1,37; 12,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 50,87</t>
+          <t>-3,31; 12,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 45,28</t>
+          <t>-3,54; 12,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 25,14</t>
+          <t>-12,36; 4,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 25,12</t>
+          <t>-16,37; 3,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,81; 7,28</t>
+          <t>-9,67; 2,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 35,93</t>
+          <t>-8,93; 3,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 33,6</t>
+          <t>-10,26; 1,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,74; 20,95</t>
+          <t>-2,69; 9,27</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-11,87; 4,41</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 5,8</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 6,29</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; 4,26</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,91; 4,65</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-10,84; 1,09</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>45,72%</t>
+          <t>76,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>60,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>48,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>-34,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>-43,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,09%</t>
+          <t>-34,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>-23,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>-44,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>45,75%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-29,84%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12,92%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12,13%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-5,27%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-7,13%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-37,26%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,17; 156,49</t>
+          <t>-18,11; 287,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 129,83</t>
+          <t>-38,36; 305,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 105,4</t>
+          <t>-41,82; 278,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 35,51</t>
+          <t>-78,84; 98,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 36,41</t>
+          <t>-83,16; 57,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,92; 9,09</t>
+          <t>-69,77; 36,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 64,63</t>
+          <t>-62,13; 65,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 59,86</t>
+          <t>-76,15; 28,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,08; 34,87</t>
+          <t>-36,75; 296,12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-71,92; 65,18</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-35,86; 85,2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-32,43; 95,7</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-51,79; 62,93</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-53,07; 92,16</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-68,33; 14,92</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-12,1</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,45</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>3,26</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,14</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-49,33; 22,08</t>
+          <t>-4,57; 3,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-48,09; 18,94</t>
+          <t>-3,57; 6,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-39,25; 38,53</t>
+          <t>-5,96; 2,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,64; 48,47</t>
+          <t>-1,93; 8,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,41; 37,06</t>
+          <t>-4,44; 7,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 43,31</t>
+          <t>-3,87; 3,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,37; 22,4</t>
+          <t>-3,54; 4,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,69; 17,41</t>
+          <t>-1,3; 7,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 30,87</t>
+          <t>-2,12; 9,94</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 8,96</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 2,49</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 4,19</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 3,61</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 7,41</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 6,28</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-22,48%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-18,9%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>-37,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>102,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>-5,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,02%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-12,22%</t>
+          <t>89,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>49,27%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38,38%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-2,08%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>29,1%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>68,55%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>36,58%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,39; 59,48</t>
+          <t>-65,9; 164,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,44; 51,13</t>
+          <t>-50,14; 257,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,54; 119,02</t>
+          <t>-88,88; 142,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,94; 174,4</t>
+          <t>-57,24; 890,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,32; 137,77</t>
+          <t>-74,33; 445,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,48; 156,24</t>
+          <t>-69,21; 199,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 53,97</t>
+          <t>-68,08; 254,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-54,89; 42,78</t>
+          <t>-36,43; 488,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 82,54</t>
+          <t>-31,69; 229,74</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-38,5; 194,14</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-52,36; 103,63</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-41,66; 159,17</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-44,0; 150,35</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-13,7; 233,21</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-30,48; 158,87</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-24,07</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-7,62</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-41,31; 39,24</t>
+          <t>-3,05; 5,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-64,96; 26,61</t>
+          <t>-5,63; 1,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 55,7</t>
+          <t>-4,38; 3,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 27,94</t>
+          <t>-2,8; 6,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 29,67</t>
+          <t>-7,65; 3,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 22,47</t>
+          <t>-2,9; 4,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 23,78</t>
+          <t>-3,05; 4,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 16,27</t>
+          <t>-3,22; 4,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 29,65</t>
+          <t>-2,05; 7,52</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 7,04</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 3,96</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 1,95</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 3,28</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 5,4</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 3,34</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,79%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-41,53%</t>
+          <t>-38,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>-24,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-14,11%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>43,23%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>24,42%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19,5%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-10,42%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>36,16%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-3,91%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,23; 105,66</t>
+          <t>-43,88; 147,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-81,96; 45,92</t>
+          <t>-75,32; 48,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,25; 180,9</t>
+          <t>-58,65; 120,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 74,99</t>
+          <t>-49,25; 181,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,3; 76,35</t>
+          <t>-64,43; 47,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,76; 61,64</t>
+          <t>-43,06; 120,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 57,25</t>
+          <t>-41,93; 104,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-51,49; 36,29</t>
+          <t>-46,35; 109,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 78,55</t>
+          <t>-27,14; 171,68</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-33,57; 142,78</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-22,21; 98,29</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-43,83; 48,16</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-33,53; 82,56</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-15,51; 114,63</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-36,67; 50,73</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,51</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,81</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,33</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,27</t>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,71</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-4,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 17,63</t>
+          <t>-5,82; 3,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 23,09</t>
+          <t>-4,18; 5,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 34,64</t>
+          <t>-2,04; 8,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-24,84; 15,22</t>
+          <t>-3,52; 10,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 8,6</t>
+          <t>-16,83; 0,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,65; 41,05</t>
+          <t>-6,01; 3,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 10,57</t>
+          <t>-5,53; 3,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 8,75</t>
+          <t>0,9; 11,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,96; 32,04</t>
+          <t>-7,38; 5,24</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-7,79; 6,17</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 1,88</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 3,41</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 8,62</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,38; 5,75</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-9,99; 0,95</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,59%</t>
+          <t>-9,07%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,4%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,71%</t>
+          <t>-34,78%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>-11,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,42%</t>
+          <t>-8,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>56,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>-5,25%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-2,97%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-10,64%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>48,57%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-22,7%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,34; 30,95</t>
+          <t>-49,43; 54,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 43,44</t>
+          <t>-36,56; 85,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 64,51</t>
+          <t>-22,11; 122,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,54; 27,89</t>
+          <t>-24,19; 113,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 16,56</t>
+          <t>-58,81; 5,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,8; 81,83</t>
+          <t>-45,39; 39,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,3; 17,58</t>
+          <t>-43,15; 43,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 15,21</t>
+          <t>4,71; 141,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,34; 57,5</t>
+          <t>-38,12; 39,15</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-39,06; 48,2</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-37,69; 23,76</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-29,46; 44,2</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 111,86</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-21,16; 47,51</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-44,22; 4,62</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>14,23</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,8</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,6</t>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>8,71</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 25,75</t>
+          <t>-3,47; 6,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 21,13</t>
+          <t>-2,86; 9,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 26,81</t>
+          <t>-6,11; 4,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 16,32</t>
+          <t>7,74; 21,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 21,88</t>
+          <t>-10,48; 8,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 32,56</t>
+          <t>-3,57; 4,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 15,61</t>
+          <t>-2,7; 4,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 19,29</t>
+          <t>-1,57; 7,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 25,99</t>
+          <t>-2,65; 8,85</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-6,14; 6,11</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 4,38</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 5,78</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 4,65</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>3,88; 13,15</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 5,74</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>-11,66%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-3,85%</t>
+          <t>183,56%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>71,33%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>42,93%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-0,25%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>18,57%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>30,94%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>17,29%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>111,66%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-26,63; 63,3</t>
+          <t>-29,49; 110,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-35,13; 51,89</t>
+          <t>-28,34; 152,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 66,83</t>
+          <t>-53,35; 72,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-53,56; 114,29</t>
+          <t>67,82; 386,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,9; 135,94</t>
+          <t>-36,47; 51,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 232,6</t>
+          <t>-53,74; 144,89</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-27,67; 50,71</t>
+          <t>-45,1; 180,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,79; 63,72</t>
+          <t>-28,72; 267,07</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 85,72</t>
+          <t>-29,39; 169,25</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-43,17; 83,17</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-25,28; 86,09</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-15,83; 110,39</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-28,02; 92,07</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>39,31; 216,3</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-27,98; 42,4</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-21,12</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-24,68</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-19,32</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-7,18</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-8,37</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-6,86</t>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>4,09</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>4,69</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-43,59; -1,75</t>
+          <t>-7,9; -0,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-48,48; -7,74</t>
+          <t>-8,49; -1,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-41,36; 0,24</t>
+          <t>-6,69; 2,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 13,28</t>
+          <t>0,96; 12,19</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 14,57</t>
+          <t>1,31; 12,03</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 18,63</t>
+          <t>-2,32; 3,86</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 2,43</t>
+          <t>-2,3; 4,08</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 1,08</t>
+          <t>-1,9; 6,46</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 4,29</t>
+          <t>-3,19; 7,04</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 8,07</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 1,22</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 0,98</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 3,04</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 8,44</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 8,73</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-73,28%</t>
+          <t>-69,82%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-85,63%</t>
+          <t>-80,67%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-67,04%</t>
+          <t>-44,83%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>233,96%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>238,96%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>34,96%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-37,73%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-44,0%</t>
+          <t>64,46%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-36,08%</t>
+          <t>47,05%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>87,73%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-24,51%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-31,72%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>103,63%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>140,28%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-94,72; 26,07</t>
+          <t>-95,67; 36,39</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -36,65</t>
+          <t>-100,0; 0,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-94,11; 8,94</t>
+          <t>-89,07; 84,38</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-63,66; 265,54</t>
+          <t>-10,42; 1106,95</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-55,08; 252,73</t>
+          <t>6,52; 1398,28</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-66,39; 288,42</t>
+          <t>-59,17; 234,9</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-71,84; 23,0</t>
+          <t>-56,82; 296,56</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-75,46; 20,41</t>
+          <t>-57,11; 433,3</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-75,25; 48,35</t>
+          <t>-45,22; 303,31</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-38,71; 427,4</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-63,69; 48,77</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-69,69; 44,58</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-57,95; 112,24</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>3,46; 430,58</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>14,69; 470,71</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 11,5</t>
+          <t>-1,43; 2,64</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 6,67</t>
+          <t>-1,54; 2,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 18,25</t>
+          <t>-1,94; 2,37</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 8,67</t>
+          <t>1,36; 6,55</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 10,16</t>
+          <t>-4,29; 1,85</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 17,27</t>
+          <t>-1,97; 1,4</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 7,12</t>
+          <t>-1,62; 2,04</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 5,4</t>
+          <t>-0,13; 3,89</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,06; 15,51</t>
+          <t>-0,31; 4,3</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 3,72</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 1,56</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 1,68</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 2,66</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 4,76</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 1,55</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-10,9%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>58,44%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>-12,24%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>-3,85%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-1,47%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-4,96%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>25,93%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>18,03%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>40,7%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-2,82%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 25,53</t>
+          <t>-19,04; 47,41</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 14,6</t>
+          <t>-20,33; 42,69</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 41,76</t>
+          <t>-24,9; 40,99</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 24,65</t>
+          <t>16,1; 110,89</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 29,1</t>
+          <t>-30,84; 16,07</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 49,24</t>
+          <t>-27,71; 27,6</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 17,64</t>
+          <t>-22,28; 39,52</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 12,83</t>
+          <t>-3,32; 74,21</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0,17; 38,64</t>
+          <t>-3,64; 63,37</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-14,51; 48,13</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-15,72; 27,48</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-13,58; 29,49</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 46,89</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>15,81; 71,25</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-19,54; 16,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
